--- a/sample.xlsx
+++ b/sample.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\kuliah\improvement plan\sistem-rekomendasi-action-plan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0E2FF93-D0AE-4230-9593-F762A4CB8646}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8873E90-81A4-42F8-BFD8-4E965EEEA2BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4CC0AD44-6D45-463C-AD81-0086636881BE}"/>
   </bookViews>
@@ -360,10 +360,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="169" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* \-??_);_(@_)"/>
-    <numFmt numFmtId="171" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* \-??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* \-??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* \-??_);_(@_)"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -374,42 +374,48 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF969696"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -432,7 +438,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -494,6 +500,34 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFD9D9D9"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFBFBFBF"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFBFBFBF"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFBFBFBF"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -515,20 +549,20 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -563,139 +597,27 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -1024,23 +946,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98104FF9-914F-4F5B-9A07-5CF3FDDEC574}">
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="67" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="81" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.88671875" customWidth="1"/>
-    <col min="4" max="4" width="29.77734375" customWidth="1"/>
-    <col min="5" max="5" width="19.6640625" customWidth="1"/>
+    <col min="2" max="2" width="27.44140625" customWidth="1"/>
+    <col min="3" max="3" width="24.33203125" customWidth="1"/>
+    <col min="4" max="4" width="36.5546875" customWidth="1"/>
+    <col min="5" max="5" width="42.6640625" customWidth="1"/>
     <col min="6" max="6" width="37" customWidth="1"/>
-    <col min="7" max="7" width="53.6640625" customWidth="1"/>
-    <col min="8" max="8" width="45.88671875" customWidth="1"/>
+    <col min="7" max="7" width="61.77734375" customWidth="1"/>
+    <col min="8" max="8" width="65.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="16.8" thickTop="1" thickBot="1">
+    <row r="1" spans="1:8" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1066,7 +988,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="306" customHeight="1" thickTop="1">
+    <row r="2" spans="1:8" ht="240.6" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1082,17 +1004,17 @@
       <c r="E2" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="11" t="s">
         <v>13</v>
       </c>
       <c r="H2" s="9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="329.4" customHeight="1">
+    <row r="3" spans="1:8" ht="187.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -1118,263 +1040,263 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="256.2" customHeight="1">
-      <c r="A4" s="10">
+    <row r="4" spans="1:8" ht="136.80000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E4" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="F4" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="G4" s="13" t="s">
+      <c r="G4" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="H4" s="13" t="s">
+      <c r="H4" s="9" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="171.6">
-      <c r="A5" s="14">
+    <row r="5" spans="1:8" ht="156" x14ac:dyDescent="0.3">
+      <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="17" t="s">
+      <c r="D5" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="E5" s="17" t="s">
+      <c r="E5" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="F5" s="17" t="s">
+      <c r="F5" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="G5" s="17" t="s">
+      <c r="G5" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="H5" s="17" t="s">
+      <c r="H5" s="9" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="218.4">
-      <c r="A6" s="18">
+    <row r="6" spans="1:8" ht="192.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="20" t="s">
+      <c r="C6" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="D6" s="21" t="s">
+      <c r="D6" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="E6" s="21" t="s">
+      <c r="E6" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="F6" s="21" t="s">
+      <c r="F6" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="G6" s="21" t="s">
+      <c r="G6" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="H6" s="21" t="s">
+      <c r="H6" s="9" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="140.4">
-      <c r="A7" s="22">
+    <row r="7" spans="1:8" ht="124.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="3">
         <v>6</v>
       </c>
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C7" s="24" t="s">
+      <c r="C7" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="D7" s="25" t="s">
+      <c r="D7" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E7" s="25" t="s">
+      <c r="E7" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="F7" s="25" t="s">
+      <c r="F7" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="G7" s="25" t="s">
+      <c r="G7" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="H7" s="25" t="s">
+      <c r="H7" s="9" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="124.8">
-      <c r="A8" s="26">
+    <row r="8" spans="1:8" ht="140.4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3">
         <v>7</v>
       </c>
-      <c r="B8" s="27" t="s">
+      <c r="B8" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="28" t="s">
+      <c r="C8" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="D8" s="29" t="s">
+      <c r="D8" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="E8" s="29" t="s">
+      <c r="E8" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="F8" s="29" t="s">
+      <c r="F8" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="G8" s="29" t="s">
+      <c r="G8" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="H8" s="29" t="s">
+      <c r="H8" s="9" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="109.2">
-      <c r="A9" s="30">
+    <row r="9" spans="1:8" ht="109.2" x14ac:dyDescent="0.3">
+      <c r="A9" s="3">
         <v>8</v>
       </c>
-      <c r="B9" s="31" t="s">
+      <c r="B9" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="32" t="s">
+      <c r="C9" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="D9" s="33" t="s">
+      <c r="D9" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="E9" s="33" t="s">
+      <c r="E9" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="F9" s="33" t="s">
+      <c r="F9" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="G9" s="33" t="s">
+      <c r="G9" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="H9" s="33" t="s">
+      <c r="H9" s="9" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="156">
-      <c r="A10" s="30">
+    <row r="10" spans="1:8" ht="93.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="3">
         <v>9</v>
       </c>
-      <c r="B10" s="31" t="s">
+      <c r="B10" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="32" t="s">
+      <c r="C10" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="D10" s="33" t="s">
+      <c r="D10" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="E10" s="33" t="s">
+      <c r="E10" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="F10" s="33" t="s">
+      <c r="F10" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="G10" s="33" t="s">
+      <c r="G10" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="H10" s="33" t="s">
+      <c r="H10" s="9" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="234">
-      <c r="A11" s="34">
+    <row r="11" spans="1:8" ht="202.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="3">
         <v>10</v>
       </c>
-      <c r="B11" s="35" t="s">
+      <c r="B11" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="36" t="s">
+      <c r="C11" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="D11" s="37" t="s">
+      <c r="D11" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="E11" s="37" t="s">
+      <c r="E11" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="F11" s="37" t="s">
+      <c r="F11" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="G11" s="37" t="s">
+      <c r="G11" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="H11" s="37" t="s">
+      <c r="H11" s="9" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="109.2">
-      <c r="A12" s="38">
+    <row r="12" spans="1:8" ht="78" x14ac:dyDescent="0.3">
+      <c r="A12" s="3">
         <v>11</v>
       </c>
-      <c r="B12" s="39" t="s">
+      <c r="B12" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="C12" s="41" t="s">
+      <c r="C12" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="D12" s="40" t="s">
+      <c r="D12" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="E12" s="40" t="s">
+      <c r="E12" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="F12" s="40" t="s">
+      <c r="F12" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="G12" s="40" t="s">
+      <c r="G12" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="H12" s="40" t="s">
+      <c r="H12" s="9" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="140.4">
-      <c r="A13" s="42">
+    <row r="13" spans="1:8" ht="124.8" x14ac:dyDescent="0.3">
+      <c r="A13" s="12">
         <v>12</v>
       </c>
-      <c r="B13" s="43" t="s">
+      <c r="B13" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="C13" s="45" t="s">
+      <c r="C13" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="D13" s="44" t="s">
+      <c r="D13" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="E13" s="44" t="s">
+      <c r="E13" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="F13" s="44" t="s">
+      <c r="F13" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="G13" s="44" t="s">
+      <c r="G13" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="H13" s="44" t="s">
+      <c r="H13" s="9" t="s">
         <v>82</v>
       </c>
     </row>
